--- a/biology/Zoologie/Colibri_améthyste/Colibri_améthyste.xlsx
+++ b/biology/Zoologie/Colibri_améthyste/Colibri_améthyste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colibri_am%C3%A9thyste</t>
+          <t>Colibri_améthyste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calliphlox amethystina
-Le Colibri améthyste (Calliphlox amethystina) est une espèce de colibris de la famille des Trochilidae[1].
+Le Colibri améthyste (Calliphlox amethystina) est une espèce de colibris de la famille des Trochilidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colibri_am%C3%A9thyste</t>
+          <t>Colibri_améthyste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau atteint 9 cm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau atteint 9 cm.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colibri_am%C3%A9thyste</t>
+          <t>Colibri_améthyste</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans toute la moitié nord de l'Amérique du Sud à l'exception du bassin amazonien[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans toute la moitié nord de l'Amérique du Sud à l'exception du bassin amazonien.
 L'aire de répartition de l'espèce comprend l'Argentine, la Bolivie, le Brésil, la Colombie, l'Équateur, la Guyane, le Guyana, le Paraguay, le Pérou, le Suriname, et le Venezuela.
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colibri_am%C3%A9thyste</t>
+          <t>Colibri_améthyste</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce habite les forêts tropicales et subtropicales humides de plaine et de montagne.
 </t>
